--- a/table_1.xlsx
+++ b/table_1.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">**Variable**</t>
   </si>
   <si>
-    <t xml:space="preserve">**N = 302**</t>
+    <t xml:space="preserve">**N = 280**</t>
   </si>
   <si>
     <t xml:space="preserve">__Age__</t>
@@ -26,49 +26,49 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">59 (19.5%)</t>
+    <t xml:space="preserve">51 (18.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">76 (25.2%)</t>
+    <t xml:space="preserve">68 (24.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">89 (29.5%)</t>
+    <t xml:space="preserve">84 (30.0%)</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
-    <t xml:space="preserve">12 (4.0%)</t>
+    <t xml:space="preserve">12 (4.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
-    <t xml:space="preserve">17 (5.6%)</t>
+    <t xml:space="preserve">17 (6.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">20 (6.6%)</t>
+    <t xml:space="preserve">20 (7.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
-    <t xml:space="preserve">11 (3.6%)</t>
+    <t xml:space="preserve">10 (3.6%)</t>
   </si>
   <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
-    <t xml:space="preserve">18 (6.0%)</t>
+    <t xml:space="preserve">18 (6.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">__Gender__</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">Female</t>
   </si>
   <si>
-    <t xml:space="preserve">98 (32.5%)</t>
+    <t xml:space="preserve">86 (30.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">204 (67.5%)</t>
+    <t xml:space="preserve">194 (69.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">__Race and Ethnicity__</t>
@@ -92,37 +92,37 @@
     <t xml:space="preserve">Mexican American</t>
   </si>
   <si>
-    <t xml:space="preserve">47 (15.6%)</t>
+    <t xml:space="preserve">46 (16.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">Other Hispanic</t>
   </si>
   <si>
-    <t xml:space="preserve">23 (7.6%)</t>
+    <t xml:space="preserve">23 (8.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Hispanic White</t>
   </si>
   <si>
-    <t xml:space="preserve">117 (38.7%)</t>
+    <t xml:space="preserve">103 (36.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Hispanic Black</t>
   </si>
   <si>
-    <t xml:space="preserve">55 (18.2%)</t>
+    <t xml:space="preserve">52 (18.6%)</t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">28 (9.3%)</t>
+    <t xml:space="preserve">27 (9.6%)</t>
   </si>
   <si>
     <t xml:space="preserve">Missing</t>
   </si>
   <si>
-    <t xml:space="preserve">32 (10.6%)</t>
+    <t xml:space="preserve">29 (10.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">__Family Income__</t>
@@ -131,28 +131,25 @@
     <t xml:space="preserve">$0 to $19,999</t>
   </si>
   <si>
-    <t xml:space="preserve">65 (21.5%)</t>
+    <t xml:space="preserve">62 (22.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">$20,000 to $44,999</t>
   </si>
   <si>
-    <t xml:space="preserve">78 (25.8%)</t>
+    <t xml:space="preserve">72 (25.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">$45,000 to $74,999</t>
   </si>
   <si>
-    <t xml:space="preserve">53 (17.5%)</t>
+    <t xml:space="preserve">47 (16.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">$75,000 and Over</t>
   </si>
   <si>
-    <t xml:space="preserve">81 (26.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (8.3%)</t>
+    <t xml:space="preserve">76 (27.1%)</t>
   </si>
 </sst>
 </file>
@@ -681,7 +678,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
